--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -12032,7 +12032,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12042,16 +12042,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12060,12 +12060,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12090,16 +12090,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -12032,7 +12032,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12042,16 +12042,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12060,12 +12060,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12090,16 +12090,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12090,16 +12090,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12138,16 +12138,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12156,12 +12156,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12090,16 +12090,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12138,16 +12138,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12156,12 +12156,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12090,16 +12090,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12138,16 +12138,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12156,12 +12156,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12090,16 +12090,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12138,16 +12138,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12156,12 +12156,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12138,16 +12138,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12156,12 +12156,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12186,16 +12186,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12204,12 +12204,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12138,16 +12138,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12156,12 +12156,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12186,16 +12186,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12204,12 +12204,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12138,16 +12138,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12156,12 +12156,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12186,16 +12186,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12204,12 +12204,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>10260</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12138,16 +12138,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12156,12 +12156,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12186,16 +12186,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12204,12 +12204,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12186,16 +12186,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12204,12 +12204,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12224,7 +12224,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12234,16 +12234,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12252,12 +12252,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12186,16 +12186,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12204,12 +12204,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12224,7 +12224,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12234,16 +12234,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12252,12 +12252,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>167000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/08/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Llanos Solar</t>
+          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Los Llanos Solar SpA</t>
+          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>167000</v>
+        <v>300</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>21/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12224,7 +12224,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12234,16 +12234,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12252,12 +12252,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12282,16 +12282,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12300,12 +12300,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Llanos Solar</t>
+          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Los Llanos Solar SpA</t>
+          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>167000</v>
+        <v>300</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>26/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>167000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/08/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12224,7 +12224,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12234,16 +12234,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12252,12 +12252,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12282,16 +12282,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12300,12 +12300,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12282,16 +12282,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12300,12 +12300,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12330,16 +12330,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12282,16 +12282,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12300,12 +12300,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12330,16 +12330,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/10/2022</t>
+          <t>14/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12282,16 +12282,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12300,12 +12300,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12330,16 +12330,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/10/2022</t>
+          <t>19/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12330,16 +12330,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12330,16 +12330,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/11/2022</t>
+          <t>15/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Hidroeléctrica San Andrés Limitada</t>
+          <t>Hidroeléctrica San Andrés SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Hidroeléctrica San Andrés Limitada</t>
+          <t>Hidroeléctrica San Andrés SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Hidroeléctrica San Andrés Limitada</t>
+          <t>Hidroeléctrica San Andrés SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Hidroeléctrica San Andrés Limitada</t>
+          <t>Hidroeléctrica San Andrés SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Hidroeléctrica San Andrés Limitada</t>
+          <t>Hidroeléctrica San Andrés SpA</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14255,7 +14255,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F290" t="n">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12378,16 +12378,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13295,7 +13295,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Higuera S.A.</t>
+          <t>La Higuera Transmisión S.A</t>
         </is>
       </c>
       <c r="F270" t="n">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -4335,7 +4335,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12464,7 +12464,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12474,16 +12474,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12492,12 +12492,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Hidroeléctrica La Confluencia S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión de Media Tensión El Manzano - Portillo (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica La Confluencia S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12426,16 +12426,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Alifrut S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12464,7 +12464,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Planta de tratamiento de Residuos Industriales Líquidos, Alifrut San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12474,16 +12474,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Alifrut S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12492,12 +12492,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/04/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -4383,7 +4383,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">

--- a/data/San Fernando.xlsx
+++ b/data/San Fernando.xlsx
@@ -5431,7 +5431,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -11855,7 +11855,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F291" t="n">
